--- a/TeamUzawa_Sharing_ProjectFile/Design/(PRGDE004)05_基本設計書_画面遷移図(変更・追加分)_1.0.0.xlsx
+++ b/TeamUzawa_Sharing_ProjectFile/Design/(PRGDE004)05_基本設計書_画面遷移図(変更・追加分)_1.0.0.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve">関係者外秘</t>
   </si>
@@ -41,10 +41,25 @@
     <t xml:space="preserve">Copyright © 2023 株式会社システムシェアード. All rights reserved.</t>
   </si>
   <si>
-    <t xml:space="preserve">画面遷移図(非会員)</t>
+    <t xml:space="preserve">画面遷移図(非会員・一般会員)</t>
   </si>
   <si>
-    <t xml:space="preserve">－</t>
+    <t xml:space="preserve">商品名(リンク)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">戻る(ボタン)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ナビゲーションバー</t>
+  </si>
+  <si>
+    <t xml:space="preserve">商品一覧(リンク)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">サイドバー価格別検索</t>
+  </si>
+  <si>
+    <t xml:space="preserve">検索(ボタン)</t>
   </si>
 </sst>
 </file>
@@ -54,7 +69,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -138,6 +153,20 @@
       <color theme="1"/>
       <name val="游ゴシック Medium"/>
       <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="游明朝"/>
+      <family val="0"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="游明朝"/>
+      <family val="2"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -215,40 +244,40 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -260,11 +289,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -344,41 +369,486 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>194040</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>183960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>139320</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>14760</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="0" name="シェイプ 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="441720" y="3651120"/>
+          <a:ext cx="1431000" cy="1431000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="bbdefb"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="0" rIns="0" tIns="0" bIns="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="游明朝"/>
+            </a:rPr>
+            <a:t>2-1-1-1</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="游明朝"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="ja-JP" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="游明朝"/>
+            </a:rPr>
+            <a:t>トップ画面</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="游明朝"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>11880</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>196560</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>239400</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>62640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>117000</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>43920</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>184680</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>93240</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="画像 1" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch/>
-      </xdr:blipFill>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1" name="シェイプ 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="259560" y="653760"/>
-          <a:ext cx="7287120" cy="6382080"/>
+          <a:off x="3706560" y="1129320"/>
+          <a:ext cx="1431000" cy="1431000"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 16667"/>
+          </a:avLst>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="bbdefb"/>
+        </a:solidFill>
         <a:ln w="0">
-          <a:noFill/>
+          <a:solidFill>
+            <a:srgbClr val="729fcf"/>
+          </a:solidFill>
         </a:ln>
       </xdr:spPr>
-    </xdr:pic>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="0" rIns="0" tIns="0" bIns="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="游明朝"/>
+            </a:rPr>
+            <a:t>2-2-1-2</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="游明朝"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="ja-JP" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="游明朝"/>
+            </a:rPr>
+            <a:t>商品詳細画面</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="游明朝"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>27000</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>167040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>219960</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>198000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="シェイプ 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3741840" y="3634200"/>
+          <a:ext cx="1431000" cy="1431000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="bbdefb"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="0" rIns="0" tIns="0" bIns="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="游明朝"/>
+            </a:rPr>
+            <a:t>2-1-2-1</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="游明朝"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="ja-JP" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="游明朝"/>
+            </a:rPr>
+            <a:t>商品一覧画面</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="游明朝"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>132480</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>8280</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>190800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="シェイプ 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1865880" y="4267080"/>
+          <a:ext cx="1857240" cy="190800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 242938"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="729fcf"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>17640</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>104040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>194040</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>102960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="シェイプ 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3980160" y="2571120"/>
+          <a:ext cx="176400" cy="999000"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 141344"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="729fcf"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>34560</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>147240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>167040</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>85320</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="シェイプ 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1520640" y="5014080"/>
+          <a:ext cx="2608920" cy="738360"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="textAreaLeft" fmla="*/ 0 w 2608920"/>
+            <a:gd name="textAreaRight" fmla="*/ 2609640 w 2608920"/>
+            <a:gd name="textAreaTop" fmla="*/ 360 h 738360"/>
+            <a:gd name="textAreaBottom" fmla="*/ 739440 h 738360"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:rect l="textAreaLeft" t="textAreaTop" r="textAreaRight" b="textAreaBottom"/>
+          <a:pathLst>
+            <a:path w="21600" h="21600">
+              <a:moveTo>
+                <a:pt x="16300" y="10800"/>
+              </a:moveTo>
+              <a:arcTo wR="5500" hR="5500" stAng="0" swAng="-10800000"/>
+              <a:lnTo>
+                <a:pt x="0" y="10800"/>
+              </a:lnTo>
+              <a:arcTo wR="10800" hR="10800" stAng="10800000" swAng="10800000"/>
+              <a:lnTo>
+                <a:pt x="24300" y="10800"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="18950" y="16150"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="13600" y="10800"/>
+              </a:lnTo>
+              <a:close/>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="729fcf"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>115200</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>139320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>44280</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>138240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="シェイプ 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4573080" y="2606040"/>
+          <a:ext cx="176400" cy="999000"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 141344"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="729fcf"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -563,7 +1033,7 @@
   </sheetPr>
   <dimension ref="B2:D18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A7" colorId="64" zoomScale="75" zoomScaleNormal="100" zoomScalePageLayoutView="75" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="100" zoomScalePageLayoutView="75" workbookViewId="0">
       <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -624,10 +1094,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:L36"/>
+  <dimension ref="B2:U36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A7" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AG13" activeCellId="0" sqref="AG13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A4" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Z21" activeCellId="0" sqref="Z21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25390625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -642,24 +1112,36 @@
       <c r="C2" s="10"/>
     </row>
     <row r="3" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E19" s="11"/>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E20" s="11" t="s">
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M16" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="L20" s="11"/>
+      <c r="U16" s="7" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I23" s="11"/>
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J20" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L29" s="0"/>
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J21" s="7" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I30" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I31" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="12"/>
+      <c r="C36" s="11"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/TeamUzawa_Sharing_ProjectFile/Design/(PRGDE004)05_基本設計書_画面遷移図(変更・追加分)_1.0.0.xlsx
+++ b/TeamUzawa_Sharing_ProjectFile/Design/(PRGDE004)05_基本設計書_画面遷移図(変更・追加分)_1.0.0.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t xml:space="preserve">関係者外秘</t>
   </si>
@@ -42,6 +42,15 @@
   </si>
   <si>
     <t xml:space="preserve">画面遷移図(非会員・一般会員)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">＜非会員・未ログイン状態で利用できる画面の共通事項＞ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">・サイドバーには、価格別検索が表示される</t>
+  </si>
+  <si>
+    <t xml:space="preserve">・サイドバーで、検索条件を選択すると、2-1-2-1商品一覧画面が表示される</t>
   </si>
   <si>
     <t xml:space="preserve">商品名(リンク)</t>
@@ -371,16 +380,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>194040</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>183960</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>61200</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>86760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>139320</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>14760</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>6120</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>192240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -389,8 +398,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="441720" y="3651120"/>
-          <a:ext cx="1431000" cy="1431000"/>
+          <a:off x="556560" y="4372920"/>
+          <a:ext cx="1430640" cy="1430640"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -460,16 +469,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>239400</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>62640</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>106560</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>113760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>184680</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>93240</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>51480</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>144360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -478,8 +487,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3706560" y="1129320"/>
-          <a:ext cx="1431000" cy="1431000"/>
+          <a:off x="3821400" y="1921680"/>
+          <a:ext cx="1430640" cy="1430640"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -550,15 +559,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>167040</xdr:rowOff>
+      <xdr:colOff>141840</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>88560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>219960</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>198000</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>86760</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>194040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -567,8 +576,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3741840" y="3634200"/>
-          <a:ext cx="1431000" cy="1431000"/>
+          <a:off x="3856680" y="4374720"/>
+          <a:ext cx="1430640" cy="1430640"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -638,16 +647,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>132480</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>-360</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>177480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>8280</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>190800</xdr:rowOff>
+      <xdr:colOff>122760</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>167760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -656,8 +665,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1865880" y="4267080"/>
-          <a:ext cx="1857240" cy="190800"/>
+          <a:off x="1980720" y="4988880"/>
+          <a:ext cx="1856880" cy="190440"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -686,15 +695,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>17640</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>104040</xdr:rowOff>
+      <xdr:colOff>141120</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>180720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>194040</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>102960</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>69480</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>101160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -703,8 +712,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3980160" y="2571120"/>
-          <a:ext cx="176400" cy="999000"/>
+          <a:off x="4103640" y="3388680"/>
+          <a:ext cx="176040" cy="998640"/>
         </a:xfrm>
         <a:prstGeom prst="upArrow">
           <a:avLst>
@@ -733,15 +742,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>34560</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>147240</xdr:rowOff>
+      <xdr:colOff>149400</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>124920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>167040</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>85320</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>33840</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>81720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -750,16 +759,16 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1520640" y="5014080"/>
-          <a:ext cx="2608920" cy="738360"/>
+          <a:off x="1635480" y="5736240"/>
+          <a:ext cx="2608560" cy="738000"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
           <a:gdLst>
-            <a:gd name="textAreaLeft" fmla="*/ 0 w 2608920"/>
-            <a:gd name="textAreaRight" fmla="*/ 2609640 w 2608920"/>
-            <a:gd name="textAreaTop" fmla="*/ 360 h 738360"/>
-            <a:gd name="textAreaBottom" fmla="*/ 739440 h 738360"/>
+            <a:gd name="textAreaLeft" fmla="*/ 0 w 2608560"/>
+            <a:gd name="textAreaRight" fmla="*/ 2609640 w 2608560"/>
+            <a:gd name="textAreaTop" fmla="*/ 720 h 738000"/>
+            <a:gd name="textAreaBottom" fmla="*/ 739800 h 738000"/>
           </a:gdLst>
           <a:ahLst/>
           <a:rect l="textAreaLeft" t="textAreaTop" r="textAreaRight" b="textAreaBottom"/>
@@ -807,15 +816,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>115200</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>139320</xdr:rowOff>
+      <xdr:colOff>230040</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>25920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>44280</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>138240</xdr:rowOff>
+      <xdr:colOff>158760</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>136800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -824,8 +833,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4573080" y="2606040"/>
-          <a:ext cx="176400" cy="999000"/>
+          <a:off x="4687920" y="3424320"/>
+          <a:ext cx="176040" cy="998640"/>
         </a:xfrm>
         <a:prstGeom prst="upArrow">
           <a:avLst>
@@ -1097,7 +1106,7 @@
   <dimension ref="B2:U36"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A4" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z21" activeCellId="0" sqref="Z21"/>
+      <selection pane="topLeft" activeCell="N8" activeCellId="0" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25390625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1112,32 +1121,59 @@
       <c r="C2" s="10"/>
     </row>
     <row r="3" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M16" s="7" t="s">
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="U16" s="7" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="21.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J20" s="7" t="s">
+    <row r="6" customFormat="false" ht="21.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J21" s="7" t="s">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M16" s="0"/>
+      <c r="U16" s="0"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M19" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I30" s="7" t="s">
+      <c r="U19" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I31" s="7" t="s">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J23" s="7" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J24" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I30" s="0"/>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I31" s="0"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J34" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J35" s="7" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
